--- a/К защите/Саша/В диплом/Графики.xlsx
+++ b/К защите/Саша/В диплом/Графики.xlsx
@@ -118,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -134,6 +134,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -165,7 +168,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1988407699037624E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.88337270341207352"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -177,7 +190,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$27</c:f>
+              <c:f>Лист1!$A$5:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -261,7 +274,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$3:$B$27</c:f>
+              <c:f>Лист1!$B$5:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -353,7 +366,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$27</c:f>
+              <c:f>Лист1!$A$5:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -437,7 +450,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$3:$C$27</c:f>
+              <c:f>Лист1!$C$5:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -529,7 +542,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$27</c:f>
+              <c:f>Лист1!$A$5:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -613,7 +626,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$3:$B$27</c:f>
+              <c:f>Лист1!$B$5:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -705,7 +718,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$27</c:f>
+              <c:f>Лист1!$A$5:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -789,7 +802,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$3:$C$27</c:f>
+              <c:f>Лист1!$C$5:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -881,11 +894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="158641152"/>
-        <c:axId val="167777024"/>
+        <c:axId val="374306688"/>
+        <c:axId val="374308224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="158641152"/>
+        <c:axId val="374306688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,12 +908,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167777024"/>
+        <c:crossAx val="374308224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167777024"/>
+        <c:axId val="374308224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158641152"/>
+        <c:crossAx val="374306688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -956,7 +969,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$27</c:f>
+              <c:f>Лист1!$A$5:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1040,7 +1053,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$3:$E$27</c:f>
+              <c:f>Лист1!$E$5:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1132,7 +1145,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$27</c:f>
+              <c:f>Лист1!$A$5:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1216,7 +1229,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$F$3:$F$27</c:f>
+              <c:f>Лист1!$F$5:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1308,11 +1321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167986688"/>
-        <c:axId val="167988224"/>
+        <c:axId val="374324608"/>
+        <c:axId val="374338688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167986688"/>
+        <c:axId val="374324608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,12 +1335,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167988224"/>
+        <c:crossAx val="374338688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167988224"/>
+        <c:axId val="374338688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,7 +1351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167986688"/>
+        <c:crossAx val="374324608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1383,7 +1396,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$27</c:f>
+              <c:f>Лист1!$A$5:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1467,7 +1480,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$H$3:$H$27</c:f>
+              <c:f>Лист1!$H$5:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1559,7 +1572,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$27</c:f>
+              <c:f>Лист1!$A$5:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1643,7 +1656,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$I$3:$I$27</c:f>
+              <c:f>Лист1!$I$5:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1735,11 +1748,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168023168"/>
-        <c:axId val="168024704"/>
+        <c:axId val="374637696"/>
+        <c:axId val="374639232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168023168"/>
+        <c:axId val="374637696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,12 +1762,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168024704"/>
+        <c:crossAx val="374639232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168024704"/>
+        <c:axId val="374639232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1765,7 +1778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168023168"/>
+        <c:crossAx val="374637696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1782,20 +1795,425 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1988407699037624E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.77282545931758528"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$25:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>8</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$20:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$10:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="349552000"/>
+        <c:axId val="374553600"/>
+        <c:axId val="349575808"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="349552000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="374553600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="374553600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="349552000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="349575808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="374553600"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1816,16 +2234,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1848,16 +2266,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1873,6 +2291,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2168,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A3:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,331 +2627,345 @@
     <col min="1" max="1" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="F3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I3" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H4" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>64</v>
-      </c>
-      <c r="C3" s="1">
-        <v>64</v>
-      </c>
-      <c r="E3" s="1">
-        <v>64</v>
-      </c>
-      <c r="F3" s="1">
-        <v>64</v>
-      </c>
-      <c r="H3" s="1">
-        <v>64</v>
-      </c>
-      <c r="I3" s="1">
-        <v>64</v>
+      <c r="B5" s="1">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1">
+        <v>64</v>
+      </c>
+      <c r="H5" s="1">
+        <v>64</v>
+      </c>
+      <c r="I5" s="1">
+        <v>64</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>64</v>
-      </c>
-      <c r="C4" s="2">
-        <v>64</v>
-      </c>
-      <c r="E4" s="2">
-        <v>64</v>
-      </c>
-      <c r="F4" s="2">
-        <v>64</v>
-      </c>
-      <c r="H4" s="2">
-        <v>64</v>
-      </c>
-      <c r="I4" s="2">
-        <v>64</v>
+      <c r="B6" s="2">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2">
+        <v>64</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2">
-        <v>64</v>
-      </c>
-      <c r="E5" s="2">
-        <v>64</v>
-      </c>
-      <c r="F5" s="2">
-        <v>64</v>
-      </c>
-      <c r="H5" s="2">
-        <v>64</v>
-      </c>
-      <c r="I5" s="2">
-        <v>64</v>
+      <c r="B7" s="2">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2">
+        <v>64</v>
+      </c>
+      <c r="H7" s="2">
+        <v>64</v>
+      </c>
+      <c r="I7" s="2">
+        <v>64</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>64</v>
-      </c>
-      <c r="C6" s="2">
-        <v>64</v>
-      </c>
-      <c r="E6" s="2">
-        <v>64</v>
-      </c>
-      <c r="F6" s="2">
-        <v>64</v>
-      </c>
-      <c r="H6" s="2">
-        <v>64</v>
-      </c>
-      <c r="I6" s="2">
-        <v>64</v>
+      <c r="B8" s="2">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2">
+        <v>64</v>
+      </c>
+      <c r="H8" s="2">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2">
+        <v>64</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>64</v>
-      </c>
-      <c r="C7" s="2">
-        <v>64</v>
-      </c>
-      <c r="E7" s="2">
-        <v>64</v>
-      </c>
-      <c r="F7" s="2">
-        <v>64</v>
-      </c>
-      <c r="H7" s="2">
-        <v>64</v>
-      </c>
-      <c r="I7" s="2">
-        <v>64</v>
+      <c r="B9" s="2">
+        <v>64</v>
+      </c>
+      <c r="C9" s="2">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>64</v>
+      </c>
+      <c r="F9" s="2">
+        <v>64</v>
+      </c>
+      <c r="H9" s="2">
+        <v>64</v>
+      </c>
+      <c r="I9" s="2">
+        <v>64</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>64</v>
-      </c>
-      <c r="C8" s="2">
-        <v>64</v>
-      </c>
-      <c r="E8" s="2">
-        <v>64</v>
-      </c>
-      <c r="F8" s="2">
-        <v>64</v>
-      </c>
-      <c r="H8" s="2">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2">
-        <v>64</v>
+      <c r="B10" s="2">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2">
+        <v>64</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>64</v>
-      </c>
-      <c r="C9" s="2">
-        <v>64</v>
-      </c>
-      <c r="E9" s="2">
-        <v>64</v>
-      </c>
-      <c r="F9" s="2">
-        <v>64</v>
-      </c>
-      <c r="H9" s="2">
-        <v>64</v>
-      </c>
-      <c r="I9" s="2">
-        <v>64</v>
+      <c r="B11" s="2">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2">
+        <v>64</v>
+      </c>
+      <c r="H11" s="2">
+        <v>64</v>
+      </c>
+      <c r="I11" s="2">
+        <v>64</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
         <v>60</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C12" s="2">
         <v>50</v>
       </c>
-      <c r="E10" s="2">
-        <v>64</v>
-      </c>
-      <c r="F10" s="2">
-        <v>64</v>
-      </c>
-      <c r="H10" s="2">
-        <v>64</v>
-      </c>
-      <c r="I10" s="2">
-        <v>64</v>
+      <c r="E12" s="2">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2">
+        <v>64</v>
+      </c>
+      <c r="I12" s="2">
+        <v>64</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6">
+        <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B13" s="2">
         <v>50</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C13" s="2">
         <v>36</v>
       </c>
-      <c r="E11" s="2">
-        <v>64</v>
-      </c>
-      <c r="F11" s="2">
-        <v>64</v>
-      </c>
-      <c r="H11" s="2">
-        <v>64</v>
-      </c>
-      <c r="I11" s="2">
-        <v>64</v>
+      <c r="E13" s="2">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2">
+        <v>64</v>
+      </c>
+      <c r="H13" s="2">
+        <v>64</v>
+      </c>
+      <c r="I13" s="2">
+        <v>64</v>
+      </c>
+      <c r="K13" s="6">
+        <v>2</v>
+      </c>
+      <c r="L13" s="6">
+        <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B14" s="2">
         <v>50</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C14" s="2">
         <v>36</v>
       </c>
-      <c r="E12" s="2">
-        <v>64</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E14" s="2">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2">
         <v>50</v>
       </c>
-      <c r="H12" s="2">
-        <v>64</v>
-      </c>
-      <c r="I12" s="2">
-        <v>64</v>
+      <c r="H14" s="2">
+        <v>64</v>
+      </c>
+      <c r="I14" s="2">
+        <v>64</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2</v>
+      </c>
+      <c r="L14" s="6">
+        <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B15" s="2">
         <v>40</v>
       </c>
-      <c r="C13" s="2">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
         <v>50</v>
-      </c>
-      <c r="F13" s="2">
-        <v>8</v>
-      </c>
-      <c r="H13" s="2">
-        <v>50</v>
-      </c>
-      <c r="I13" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2">
-        <v>40</v>
-      </c>
-      <c r="F14" s="2">
-        <v>8</v>
-      </c>
-      <c r="H14" s="2">
-        <v>50</v>
-      </c>
-      <c r="I14" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2">
-        <v>36</v>
       </c>
       <c r="F15" s="2">
         <v>8</v>
@@ -2512,21 +2974,27 @@
         <v>50</v>
       </c>
       <c r="I15" s="2">
+        <v>50</v>
+      </c>
+      <c r="K15" s="6">
+        <v>4</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>24</v>
-      </c>
       <c r="C16" s="2">
         <v>8</v>
       </c>
       <c r="E16" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2">
         <v>8</v>
@@ -2535,267 +3003,397 @@
         <v>50</v>
       </c>
       <c r="I16" s="2">
+        <v>36</v>
+      </c>
+      <c r="K16" s="6">
+        <v>4</v>
+      </c>
+      <c r="L16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
         <v>30</v>
       </c>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>36</v>
+      </c>
+      <c r="F17" s="2">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2">
+        <v>50</v>
+      </c>
+      <c r="I17" s="2">
+        <v>36</v>
+      </c>
+      <c r="K17" s="6">
+        <v>4</v>
+      </c>
+      <c r="L17" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>36</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2">
+        <v>50</v>
+      </c>
+      <c r="I18" s="2">
+        <v>30</v>
+      </c>
+      <c r="K18" s="6">
+        <v>4</v>
+      </c>
+      <c r="L18" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B19" s="2">
         <v>20</v>
       </c>
-      <c r="C17" s="2">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="C19" s="2">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
         <v>30</v>
       </c>
-      <c r="F17" s="2">
-        <v>8</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="F19" s="2">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2">
         <v>48</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I19" s="2">
         <v>22</v>
       </c>
+      <c r="K19" s="6">
+        <v>4</v>
+      </c>
+      <c r="L19" s="6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B20" s="2">
         <v>20</v>
       </c>
-      <c r="C18" s="2">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
         <v>30</v>
       </c>
-      <c r="F18" s="2">
-        <v>8</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="F20" s="2">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2">
         <v>36</v>
       </c>
-      <c r="I18" s="2">
-        <v>8</v>
+      <c r="I20" s="2">
+        <v>8</v>
+      </c>
+      <c r="K20" s="6">
+        <v>8</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B21" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="2">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="C21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
         <v>24</v>
       </c>
-      <c r="F19" s="2">
-        <v>8</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="F21" s="2">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2">
         <v>30</v>
       </c>
-      <c r="I19" s="2">
-        <v>8</v>
+      <c r="I21" s="2">
+        <v>8</v>
+      </c>
+      <c r="K21" s="6">
+        <v>8</v>
+      </c>
+      <c r="L21" s="6">
+        <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B22" s="2">
         <v>12</v>
-      </c>
-      <c r="C20" s="2">
-        <v>6</v>
-      </c>
-      <c r="E20" s="2">
-        <v>20</v>
-      </c>
-      <c r="F20" s="2">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2">
-        <v>26</v>
-      </c>
-      <c r="I20" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2">
-        <v>6</v>
-      </c>
-      <c r="E21" s="2">
-        <v>16</v>
-      </c>
-      <c r="F21" s="2">
-        <v>8</v>
-      </c>
-      <c r="H21" s="2">
-        <v>24</v>
-      </c>
-      <c r="I21" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>10</v>
       </c>
       <c r="C22" s="2">
         <v>6</v>
       </c>
       <c r="E22" s="2">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2">
+        <v>26</v>
+      </c>
+      <c r="I22" s="2">
+        <v>8</v>
+      </c>
+      <c r="K22" s="6">
+        <v>8</v>
+      </c>
+      <c r="L22" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
         <v>12</v>
       </c>
-      <c r="F22" s="2">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="C23" s="2">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2">
+        <v>24</v>
+      </c>
+      <c r="I23" s="2">
+        <v>8</v>
+      </c>
+      <c r="K23" s="6">
+        <v>8</v>
+      </c>
+      <c r="L23" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4</v>
-      </c>
-      <c r="E23" s="2">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2">
-        <v>8</v>
-      </c>
-      <c r="H23" s="2">
+    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>20</v>
-      </c>
-      <c r="I23" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>10</v>
       </c>
-      <c r="C24" s="3">
-        <v>4</v>
+      <c r="C24" s="2">
+        <v>6</v>
       </c>
       <c r="E24" s="2">
         <v>12</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>8</v>
       </c>
       <c r="H24" s="2">
-        <v>20</v>
-      </c>
-      <c r="I24" s="3">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="I24" s="2">
+        <v>8</v>
+      </c>
+      <c r="K24" s="6">
+        <v>8</v>
+      </c>
+      <c r="L24" s="6">
+        <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2">
         <v>10</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="E25" s="2">
         <v>12</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>8</v>
       </c>
       <c r="H25" s="2">
-        <v>18</v>
-      </c>
-      <c r="I25" s="4">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="I25" s="2">
+        <v>8</v>
+      </c>
+      <c r="K25" s="6">
+        <v>10</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>4</v>
       </c>
       <c r="E26" s="2">
         <v>12</v>
       </c>
-      <c r="F26" s="2">
-        <v>6</v>
+      <c r="F26" s="3">
+        <v>8</v>
       </c>
       <c r="H26" s="2">
-        <v>16</v>
-      </c>
-      <c r="I26" s="2">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="I26" s="3">
+        <v>8</v>
+      </c>
+      <c r="K26" s="6">
+        <v>10</v>
+      </c>
+      <c r="L26" s="6">
+        <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2">
+        <v>18</v>
+      </c>
+      <c r="I27" s="4">
+        <v>8</v>
+      </c>
+      <c r="K27" s="6">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2">
+        <v>16</v>
+      </c>
+      <c r="I28" s="2">
+        <v>8</v>
+      </c>
+      <c r="K28" s="6">
+        <v>10</v>
+      </c>
+      <c r="L28" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2">
         <v>2</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E29" s="2">
         <v>10</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F29" s="2">
         <v>4</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H29" s="2">
         <v>12</v>
       </c>
-      <c r="I27" s="2">
-        <v>8</v>
+      <c r="I29" s="2">
+        <v>8</v>
+      </c>
+      <c r="K29" s="6">
+        <v>10</v>
+      </c>
+      <c r="L29" s="6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/К защите/Саша/В диплом/Графики.xlsx
+++ b/К защите/Саша/В диплом/Графики.xlsx
@@ -132,11 +132,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,11 +894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374306688"/>
-        <c:axId val="374308224"/>
+        <c:axId val="371685248"/>
+        <c:axId val="371686784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374306688"/>
+        <c:axId val="371685248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,12 +908,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374308224"/>
+        <c:crossAx val="371686784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374308224"/>
+        <c:axId val="371686784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374306688"/>
+        <c:crossAx val="371685248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1321,11 +1321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374324608"/>
-        <c:axId val="374338688"/>
+        <c:axId val="371699072"/>
+        <c:axId val="371713152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374324608"/>
+        <c:axId val="371699072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,12 +1335,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374338688"/>
+        <c:crossAx val="371713152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374338688"/>
+        <c:axId val="371713152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374324608"/>
+        <c:crossAx val="371699072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1748,11 +1748,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374637696"/>
-        <c:axId val="374639232"/>
+        <c:axId val="371999872"/>
+        <c:axId val="372001408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374637696"/>
+        <c:axId val="371999872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,12 +1762,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374639232"/>
+        <c:crossAx val="372001408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374639232"/>
+        <c:axId val="372001408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,7 +1778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374637696"/>
+        <c:crossAx val="371999872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1809,12 +1809,16 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
+      <c:rotX val="20"/>
+      <c:rotY val="30"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
+      <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -1831,10 +1835,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1988407699037624E-2"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.77282545931758528"/>
-          <c:h val="0.8326195683872849"/>
+          <c:x val="0.10608397993966601"/>
+          <c:y val="0.15078962893614736"/>
+          <c:w val="0.8271106901111045"/>
+          <c:h val="0.75403142315543892"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -2131,22 +2135,23 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="349552000"/>
-        <c:axId val="374553600"/>
-        <c:axId val="349575808"/>
+        <c:axId val="372037120"/>
+        <c:axId val="372038656"/>
+        <c:axId val="371677376"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="349552000"/>
+        <c:axId val="372037120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374553600"/>
+        <c:crossAx val="372038656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2154,7 +2159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="374553600"/>
+        <c:axId val="372038656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,32 +2167,28 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349552000"/>
+        <c:crossAx val="372037120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="349575808"/>
+        <c:axId val="371677376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374553600"/>
+        <c:crossAx val="372038656"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2299,15 +2300,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2619,7 +2620,7 @@
   <dimension ref="A3:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,18 +2629,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2686,10 +2687,10 @@
       <c r="I5" s="1">
         <v>64</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>1</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2715,10 +2716,10 @@
       <c r="I6" s="2">
         <v>64</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>1</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2744,10 +2745,10 @@
       <c r="I7" s="2">
         <v>64</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>4</v>
       </c>
     </row>
@@ -2773,10 +2774,10 @@
       <c r="I8" s="2">
         <v>64</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>1</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>8</v>
       </c>
     </row>
@@ -2802,10 +2803,10 @@
       <c r="I9" s="2">
         <v>64</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>1</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2831,10 +2832,10 @@
       <c r="I10" s="2">
         <v>64</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>2</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2860,10 +2861,10 @@
       <c r="I11" s="2">
         <v>64</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>2</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2889,10 +2890,10 @@
       <c r="I12" s="2">
         <v>64</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>2</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>4</v>
       </c>
     </row>
@@ -2918,10 +2919,10 @@
       <c r="I13" s="2">
         <v>64</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>2</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>8</v>
       </c>
     </row>
@@ -2947,10 +2948,10 @@
       <c r="I14" s="2">
         <v>64</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>2</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2976,10 +2977,10 @@
       <c r="I15" s="2">
         <v>50</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>4</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3005,10 +3006,10 @@
       <c r="I16" s="2">
         <v>36</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>4</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3034,10 +3035,10 @@
       <c r="I17" s="2">
         <v>36</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>4</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>4</v>
       </c>
     </row>
@@ -3063,10 +3064,10 @@
       <c r="I18" s="2">
         <v>30</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>4</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>8</v>
       </c>
     </row>
@@ -3092,10 +3093,10 @@
       <c r="I19" s="2">
         <v>22</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>4</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>10</v>
       </c>
     </row>
@@ -3121,10 +3122,10 @@
       <c r="I20" s="2">
         <v>8</v>
       </c>
-      <c r="K20" s="6">
-        <v>8</v>
-      </c>
-      <c r="L20" s="6">
+      <c r="K20" s="5">
+        <v>8</v>
+      </c>
+      <c r="L20" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3150,10 +3151,10 @@
       <c r="I21" s="2">
         <v>8</v>
       </c>
-      <c r="K21" s="6">
-        <v>8</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="K21" s="5">
+        <v>8</v>
+      </c>
+      <c r="L21" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3179,10 +3180,10 @@
       <c r="I22" s="2">
         <v>8</v>
       </c>
-      <c r="K22" s="6">
-        <v>8</v>
-      </c>
-      <c r="L22" s="6">
+      <c r="K22" s="5">
+        <v>8</v>
+      </c>
+      <c r="L22" s="5">
         <v>4</v>
       </c>
     </row>
@@ -3208,10 +3209,10 @@
       <c r="I23" s="2">
         <v>8</v>
       </c>
-      <c r="K23" s="6">
-        <v>8</v>
-      </c>
-      <c r="L23" s="6">
+      <c r="K23" s="5">
+        <v>8</v>
+      </c>
+      <c r="L23" s="5">
         <v>8</v>
       </c>
     </row>
@@ -3237,10 +3238,10 @@
       <c r="I24" s="2">
         <v>8</v>
       </c>
-      <c r="K24" s="6">
-        <v>8</v>
-      </c>
-      <c r="L24" s="6">
+      <c r="K24" s="5">
+        <v>8</v>
+      </c>
+      <c r="L24" s="5">
         <v>10</v>
       </c>
     </row>
@@ -3266,10 +3267,10 @@
       <c r="I25" s="2">
         <v>8</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>10</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3295,10 +3296,10 @@
       <c r="I26" s="3">
         <v>8</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>10</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3324,10 +3325,10 @@
       <c r="I27" s="4">
         <v>8</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>10</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>4</v>
       </c>
     </row>
@@ -3353,10 +3354,10 @@
       <c r="I28" s="2">
         <v>8</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>10</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>8</v>
       </c>
     </row>
@@ -3382,10 +3383,10 @@
       <c r="I29" s="2">
         <v>8</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>10</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>10</v>
       </c>
     </row>

--- a/К защите/Саша/В диплом/Графики.xlsx
+++ b/К защите/Саша/В диплом/Графики.xlsx
@@ -894,11 +894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="371685248"/>
-        <c:axId val="371686784"/>
+        <c:axId val="369379200"/>
+        <c:axId val="369380736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="371685248"/>
+        <c:axId val="369379200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,12 +908,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371686784"/>
+        <c:crossAx val="369380736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371686784"/>
+        <c:axId val="369380736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371685248"/>
+        <c:crossAx val="369379200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1321,11 +1321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="371699072"/>
-        <c:axId val="371713152"/>
+        <c:axId val="369393024"/>
+        <c:axId val="369411200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="371699072"/>
+        <c:axId val="369393024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,12 +1335,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371713152"/>
+        <c:crossAx val="369411200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371713152"/>
+        <c:axId val="369411200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371699072"/>
+        <c:crossAx val="369393024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1748,11 +1748,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="371999872"/>
-        <c:axId val="372001408"/>
+        <c:axId val="370545792"/>
+        <c:axId val="370547328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="371999872"/>
+        <c:axId val="370545792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,12 +1762,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372001408"/>
+        <c:crossAx val="370547328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372001408"/>
+        <c:axId val="370547328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,7 +1778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371999872"/>
+        <c:crossAx val="370545792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1810,6 +1810,26 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>tz=60 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>оптимизация</a:t>
+            </a:r>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -2135,12 +2155,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="372037120"/>
-        <c:axId val="372038656"/>
-        <c:axId val="371677376"/>
+        <c:axId val="370612096"/>
+        <c:axId val="370613632"/>
+        <c:axId val="367065280"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="372037120"/>
+        <c:axId val="370612096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,7 +2171,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372038656"/>
+        <c:crossAx val="370613632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2159,7 +2179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="372038656"/>
+        <c:axId val="370613632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,12 +2190,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372037120"/>
+        <c:crossAx val="370612096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="371677376"/>
+        <c:axId val="367065280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,7 +2205,1382 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372038656"/>
+        <c:crossAx val="370613632"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>tz=60 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>фиксированные партии</a:t>
+            </a:r>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="30"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="10"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10608397993966601"/>
+          <c:y val="0.15078962893614736"/>
+          <c:w val="0.8271106901111045"/>
+          <c:h val="0.75403142315543892"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$25:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$20:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$15:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$10:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="373255552"/>
+        <c:axId val="373257344"/>
+        <c:axId val="373473728"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="373255552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="373257344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373257344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="373255552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="373473728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="373257344"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>tz=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>8</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>0 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>оптимизация</a:t>
+            </a:r>
+            <a:endParaRPr lang="uk-UA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="30"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="10"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10608397993966601"/>
+          <c:y val="0.15078962893614736"/>
+          <c:w val="0.8271106901111045"/>
+          <c:h val="0.75403142315543892"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$25:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$20:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$15:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$10:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="372726016"/>
+        <c:axId val="373127040"/>
+        <c:axId val="373688960"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="372726016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="373127040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373127040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="372726016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="373688960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="373127040"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>tz=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>8</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>0 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>фиксированные партии</a:t>
+            </a:r>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="30"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="10"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10608397993966601"/>
+          <c:y val="0.15078962893614736"/>
+          <c:w val="0.8271106901111045"/>
+          <c:h val="0.75403142315543892"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$25:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$20:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$15:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$10:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="85470592"/>
+        <c:axId val="85472384"/>
+        <c:axId val="85479424"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="85470592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85472384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85472384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85470592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="85479424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85472384"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -2299,16 +3694,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2322,6 +3717,102 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4764</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123146</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2619,8 +4110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/К защите/Саша/В диплом/Графики.xlsx
+++ b/К защите/Саша/В диплом/Графики.xlsx
@@ -2776,6 +2776,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -2829,6 +2840,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -2882,6 +2904,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -2935,6 +2968,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -2988,6 +3032,17 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -3581,6 +3636,966 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="85472384"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>tz=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>0 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>оптимизация</a:t>
+            </a:r>
+            <a:endParaRPr lang="uk-UA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="30"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="10"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10608397993966601"/>
+          <c:y val="0.15078962893614736"/>
+          <c:w val="0.8271106901111045"/>
+          <c:h val="0.75403142315543892"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$25:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$20:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$15:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$10:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="372440448"/>
+        <c:axId val="373215232"/>
+        <c:axId val="373897408"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="372440448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="373215232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373215232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="372440448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="373897408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="373215232"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>tz=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>0 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>фиксированные партии</a:t>
+            </a:r>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="30"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="10"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10608397993966601"/>
+          <c:y val="0.15078962893614736"/>
+          <c:w val="0.8271106901111045"/>
+          <c:h val="0.75403142315543892"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$25:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$20:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$15:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$10:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$5:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="87564672"/>
+        <c:axId val="87566208"/>
+        <c:axId val="373711744"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="87564672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87566208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87566208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87564672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="373711744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87566208"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -3813,6 +4828,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4764</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123146</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4110,8 +5189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
